--- a/US07_API_Report.xlsx
+++ b/US07_API_Report.xlsx
@@ -98,6 +98,15 @@
     <t>2025-03-19T15:05:56.436366</t>
   </si>
   <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2025-03-16T18:39:46.523011</t>
+  </si>
+  <si>
     <t>494</t>
   </si>
   <si>
@@ -116,12 +125,6 @@
     <t>2025-03-16T07:48:23.124850</t>
   </si>
   <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>2025-03-16T18:39:46.523011</t>
-  </si>
-  <si>
     <t>413</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
     <t>493</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2025-03-16T07:29:22.054474</t>
   </si>
   <si>
@@ -416,7 +416,7 @@
     <t>5.0E7</t>
   </si>
   <si>
-    <t>34</t>
+    <t>40</t>
   </si>
   <si>
     <t>İstanbul</t>
@@ -428,28 +428,28 @@
     <t>2025-03-16T14:56:27.421234</t>
   </si>
   <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>2025-03-19T14:42:11.936299</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>2025-03-16T12:37:27.815259</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>2025-03-19T14:46:51.688883</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
     <t>2025-03-19T15:47:04.743993</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>2025-03-19T14:42:11.936299</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>2025-03-16T12:37:27.815259</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>2025-03-19T14:46:51.688883</t>
   </si>
   <si>
     <t>498</t>
@@ -734,42 +734,42 @@
         <v>16</v>
       </c>
       <c r="D3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="E3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s" s="2">
+      <c r="I3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>15</v>
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s" s="2">
         <v>18</v>
@@ -790,10 +790,10 @@
         <v>20</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>23</v>
@@ -805,24 +805,24 @@
         <v>25</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s" s="2">
         <v>18</v>
@@ -834,39 +834,39 @@
         <v>19</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s" s="2">
         <v>18</v>
@@ -878,10 +878,10 @@
         <v>20</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>23</v>
@@ -893,24 +893,24 @@
         <v>25</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s" s="2">
         <v>18</v>
@@ -922,10 +922,10 @@
         <v>20</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>23</v>
@@ -937,15 +937,15 @@
         <v>25</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>15</v>
@@ -954,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s" s="2">
         <v>18</v>
@@ -969,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>23</v>
@@ -981,24 +981,24 @@
         <v>25</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>18</v>
@@ -1010,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>22</v>
@@ -1019,21 +1019,21 @@
         <v>23</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>15</v>
@@ -1054,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>22</v>
@@ -1072,12 +1072,12 @@
         <v>26</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>15</v>
@@ -1086,22 +1086,22 @@
         <v>16</v>
       </c>
       <c r="D11" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="E11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>65</v>
-      </c>
       <c r="I11" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>23</v>
@@ -1113,7 +1113,7 @@
         <v>25</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N11" t="s" s="2">
         <v>66</v>
@@ -1142,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>71</v>
@@ -1174,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>18</v>
@@ -1186,10 +1186,10 @@
         <v>20</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>23</v>
@@ -1201,7 +1201,7 @@
         <v>25</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N13" t="s" s="2">
         <v>77</v>
@@ -1230,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>22</v>
@@ -1262,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>18</v>
@@ -1274,10 +1274,10 @@
         <v>20</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>23</v>
@@ -1289,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>81</v>
@@ -1300,13 +1300,13 @@
         <v>82</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>18</v>
@@ -1318,10 +1318,10 @@
         <v>20</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>23</v>
@@ -1333,7 +1333,7 @@
         <v>25</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>83</v>
@@ -1362,7 +1362,7 @@
         <v>20</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>22</v>
@@ -1406,7 +1406,7 @@
         <v>20</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>71</v>
@@ -1432,13 +1432,13 @@
         <v>93</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>18</v>
@@ -1453,7 +1453,7 @@
         <v>94</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>23</v>
@@ -1465,7 +1465,7 @@
         <v>25</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>95</v>
@@ -1494,13 +1494,13 @@
         <v>20</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>100</v>
@@ -1520,13 +1520,13 @@
         <v>103</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>18</v>
@@ -1538,10 +1538,10 @@
         <v>20</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>23</v>
@@ -1553,7 +1553,7 @@
         <v>25</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>104</v>
@@ -1564,13 +1564,13 @@
         <v>105</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>18</v>
@@ -1582,10 +1582,10 @@
         <v>20</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>23</v>
@@ -1597,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>106</v>
@@ -1626,7 +1626,7 @@
         <v>20</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>22</v>
@@ -1652,13 +1652,13 @@
         <v>109</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>18</v>
@@ -1670,10 +1670,10 @@
         <v>20</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>23</v>
@@ -1685,7 +1685,7 @@
         <v>25</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>110</v>
@@ -1740,13 +1740,13 @@
         <v>113</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s" s="2">
         <v>18</v>
@@ -1758,10 +1758,10 @@
         <v>20</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>23</v>
@@ -1773,7 +1773,7 @@
         <v>25</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>114</v>
@@ -1784,13 +1784,13 @@
         <v>115</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s" s="2">
         <v>18</v>
@@ -1802,10 +1802,10 @@
         <v>20</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>23</v>
@@ -1817,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>116</v>
@@ -1846,7 +1846,7 @@
         <v>20</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>22</v>
@@ -1878,7 +1878,7 @@
         <v>16</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s" s="2">
         <v>18</v>
@@ -1890,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>23</v>
@@ -1905,7 +1905,7 @@
         <v>25</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>120</v>
@@ -1922,7 +1922,7 @@
         <v>16</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s" s="2">
         <v>18</v>
@@ -1937,7 +1937,7 @@
         <v>122</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>23</v>
@@ -1949,7 +1949,7 @@
         <v>25</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>123</v>
@@ -1978,7 +1978,7 @@
         <v>20</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>22</v>
@@ -2022,7 +2022,7 @@
         <v>20</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>22</v>
@@ -2066,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>22</v>
@@ -2154,7 +2154,7 @@
         <v>20</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>22</v>
@@ -2180,13 +2180,13 @@
         <v>140</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s" s="2">
         <v>18</v>
@@ -2198,10 +2198,10 @@
         <v>20</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>23</v>
@@ -2213,7 +2213,7 @@
         <v>25</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -2224,13 +2224,13 @@
         <v>142</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s" s="2">
         <v>18</v>
@@ -2242,10 +2242,10 @@
         <v>20</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>23</v>
@@ -2257,7 +2257,7 @@
         <v>25</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>143</v>
@@ -2286,7 +2286,7 @@
         <v>20</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>22</v>
@@ -2312,13 +2312,13 @@
         <v>146</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s" s="2">
         <v>18</v>
@@ -2333,7 +2333,7 @@
         <v>94</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>23</v>
@@ -2345,7 +2345,7 @@
         <v>25</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>147</v>
@@ -2374,7 +2374,7 @@
         <v>20</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>71</v>
@@ -2418,13 +2418,13 @@
         <v>20</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>100</v>
